--- a/TasaErrores.xlsx
+++ b/TasaErrores.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mentxaka/Documents/Y - Trabajo/TK - Vision Artificial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D08E2B-FA0C-EF48-9599-01498E2D318A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84932F7-8069-BB4E-947A-6633DC77CF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{595681B4-A23D-D042-9560-D96D62048874}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{595681B4-A23D-D042-9560-D96D62048874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>C4Cactus</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Version 2 170</t>
+  </si>
+  <si>
+    <t>Version 3 175 ROTADA</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD00AA56-2CD7-7D41-98F3-54E2EDB08B0A}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,7 +482,7 @@
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -486,8 +492,11 @@
       <c r="J1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -515,8 +524,20 @@
       <c r="L2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -529,8 +550,11 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -543,8 +567,11 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -557,8 +584,11 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -571,8 +601,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -585,8 +618,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -599,8 +635,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -610,8 +649,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -624,8 +666,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -638,8 +683,11 @@
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -652,8 +700,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -666,8 +717,11 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -680,8 +734,11 @@
       <c r="L14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -694,8 +751,11 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -708,8 +768,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -722,14 +785,17 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <f>SUM(B3:B17)/15</f>
         <v>0.6</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:L19" si="0">SUM(C3:C17)/15</f>
+        <f t="shared" ref="C19:Q19" si="0">SUM(C3:C17)/15</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="D19" s="1">
@@ -761,6 +827,22 @@
       <c r="L19" s="1">
         <f t="shared" si="0"/>
         <v>0.4</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>SUM(Q3:Q17)/15</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
